--- a/objectsPositionSG3.xlsx
+++ b/objectsPositionSG3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D559965-27CC-4C9B-AAAC-C22DA1FCFCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83C68F-A55C-463B-8755-4D653756F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,10 @@
     <sheet name="objectsPositionU20SG3" sheetId="19" state="hidden" r:id="rId17"/>
     <sheet name="U21SG3_check_total" sheetId="20" state="hidden" r:id="rId18"/>
     <sheet name="objectsPositionU21SG3" sheetId="21" state="hidden" r:id="rId19"/>
-    <sheet name="U22SG3_check_total" sheetId="22" r:id="rId20"/>
-    <sheet name="objectsPositionU22SG3" sheetId="23" r:id="rId21"/>
+    <sheet name="U22SG3_check_total" sheetId="22" state="hidden" r:id="rId20"/>
+    <sheet name="objectsPositionU22SG3" sheetId="23" state="hidden" r:id="rId21"/>
+    <sheet name="U23SG3_check_total" sheetId="24" state="hidden" r:id="rId22"/>
+    <sheet name="objectsPositionU23SG3" sheetId="25" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="323">
   <si>
     <t>Utente</t>
   </si>
@@ -963,6 +965,63 @@
   </si>
   <si>
     <t>16:14:02</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_53_46_250</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_53_40_574</t>
+  </si>
+  <si>
+    <t>2021_11_10_09_53_49_651</t>
+  </si>
+  <si>
+    <t>U23SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_</t>
+  </si>
+  <si>
+    <t>09:52:41:125</t>
+  </si>
+  <si>
+    <t>09:52:41:134</t>
+  </si>
+  <si>
+    <t>09:52:41:140</t>
+  </si>
+  <si>
+    <t>09:53:25:692</t>
+  </si>
+  <si>
+    <t>09:53:26:020</t>
+  </si>
+  <si>
+    <t>09:53:29:528</t>
+  </si>
+  <si>
+    <t>09:53:29:666</t>
+  </si>
+  <si>
+    <t>09:53:32:699</t>
+  </si>
+  <si>
+    <t>09:53:33:075</t>
+  </si>
+  <si>
+    <t>09:53:40:574</t>
+  </si>
+  <si>
+    <t>09:53:46:250</t>
+  </si>
+  <si>
+    <t>09:53:49:651</t>
+  </si>
+  <si>
+    <t>09:52:41</t>
+  </si>
+  <si>
+    <t>09:53:49</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1383,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1959,15 +2018,31 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8703703703708605E-4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -2064,7 +2139,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -2490,7 +2565,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3120,7 +3195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3546,7 +3621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4040,7 +4115,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4638,7 +4713,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4707,7 +4782,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5091,6 +5166,364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>09:52:41</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C16,LEN(C2)-4)</f>
+        <v>09:53:49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
@@ -5101,8 +5534,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5557,7 +5990,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5628,7 +6061,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5986,7 +6419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6446,7 +6879,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">

--- a/objectsPositionSG3.xlsx
+++ b/objectsPositionSG3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
@@ -36,6 +36,14 @@
     <sheet name="objectsPositionU22SG3" sheetId="23" state="hidden" r:id="rId21"/>
     <sheet name="U23SG3_check_total" sheetId="24" state="hidden" r:id="rId22"/>
     <sheet name="objectsPositionU23SG3" sheetId="25" state="hidden" r:id="rId23"/>
+    <sheet name="U24SG3_check_total" r:id="rId28" sheetId="26"/>
+    <sheet name="objectsPositionU24SG3" r:id="rId29" sheetId="27"/>
+    <sheet name="U25SG3_check_total" r:id="rId30" sheetId="28"/>
+    <sheet name="objectsPositionU25SG3" r:id="rId31" sheetId="29"/>
+    <sheet name="U26SG3_check_total" r:id="rId32" sheetId="30"/>
+    <sheet name="objectsPositionU26SG3" r:id="rId33" sheetId="31"/>
+    <sheet name="U27SG3_check_total" r:id="rId34" sheetId="32"/>
+    <sheet name="objectsPositionU27SG3" r:id="rId35" sheetId="33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="480">
   <si>
     <t>Utente</t>
   </si>
@@ -1022,6 +1030,477 @@
   </si>
   <si>
     <t>09:53:49</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_33_400</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_21_188</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_27_253</t>
+  </si>
+  <si>
+    <t>U24SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_13_948</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_13_957</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_13_976</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_233</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_288</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_318</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_401</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_431</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_02_56_509</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_00_427</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_00_634</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_10_543</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_10_888</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_20_111</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_26_199</t>
+  </si>
+  <si>
+    <t>2021_11_10_12_03_32_565</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_24_099</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_08_495</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_16_972</t>
+  </si>
+  <si>
+    <t>U25SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_05_826</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_05_835</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_05_858</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_49_001</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_49_306</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_54_140</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_54_141</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_54_164</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_54_572</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_54_783</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_59_531</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_20_59_764</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_08_096</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_08_494</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_13_239</t>
+  </si>
+  <si>
+    <t>2021_11_10_14_21_23_726</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_08_606</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_05_780</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_11_567</t>
+  </si>
+  <si>
+    <t>U26SG</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_02_172</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_02_181</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_02_207</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_43_235</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_43_522</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_43_552</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_43_691</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_47_418</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_47_761</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_50_954</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_16_51_086</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_05_664</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_08_474</t>
+  </si>
+  <si>
+    <t>2021_11_10_15_17_11_486</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_16_401</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_13_171</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_20_193</t>
+  </si>
+  <si>
+    <t>U27SG</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_03_252</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_03_261</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_03_286</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_50_580</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_50_598</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_345</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_351</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_381</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_398</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_532</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_539</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_640</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_658</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_688</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_694</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_748</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_51_754</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_051</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_069</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_129</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_147</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_155</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_209</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_268</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_274</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_478</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_484</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_19_52_501</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_36_912</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_36_989</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_37_013</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_38_014</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_41_790</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_42_237</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_42_376</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_42_701</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_42_943</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_44_200</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_44_679</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_46_267</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_46_368</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_48_837</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_49_147</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_49_177</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_49_201</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_49_945</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_50_101</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_50_525</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_54_620</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_55_057</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_55_083</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_20_55_223</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_00_224</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_00_680</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_05_144</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_05_524</t>
+  </si>
+  <si>
+    <t>2021_11_10_16_21_16_070</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1867,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -2139,7 +2618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -2565,7 +3044,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3195,7 +3674,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3621,7 +4100,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4115,7 +4594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4713,7 +5192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.1328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4782,7 +5261,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5174,7 +5653,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5524,6 +6003,890 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
@@ -5534,8 +6897,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -5979,6 +7342,1506 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" t="s">
+        <v>458</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>395</v>
+      </c>
+      <c r="B40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B42" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>401</v>
+      </c>
+      <c r="B46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" t="s">
+        <v>468</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" t="s">
+        <v>469</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" t="s">
+        <v>471</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B57" t="s">
+        <v>472</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>414</v>
+      </c>
+      <c r="B59" t="s">
+        <v>474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>418</v>
+      </c>
+      <c r="B63" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>419</v>
+      </c>
+      <c r="B64" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>420</v>
+      </c>
+      <c r="B65" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>421</v>
+      </c>
+      <c r="B67" t="s">
+        <v>479</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5990,7 +8853,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.1328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6061,7 +8924,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -6419,7 +9282,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6879,7 +9742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">

--- a/objectsPositionSG3.xlsx
+++ b/objectsPositionSG3.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\HapticMemorySequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83C68F-A55C-463B-8755-4D653756F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E275A4-35F6-47AA-AF00-B790D3CF90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,14 @@
     <sheet name="objectsPositionU22SG3" sheetId="23" state="hidden" r:id="rId21"/>
     <sheet name="U23SG3_check_total" sheetId="24" state="hidden" r:id="rId22"/>
     <sheet name="objectsPositionU23SG3" sheetId="25" state="hidden" r:id="rId23"/>
-    <sheet name="U24SG3_check_total" r:id="rId28" sheetId="26"/>
-    <sheet name="objectsPositionU24SG3" r:id="rId29" sheetId="27"/>
-    <sheet name="U25SG3_check_total" r:id="rId30" sheetId="28"/>
-    <sheet name="objectsPositionU25SG3" r:id="rId31" sheetId="29"/>
-    <sheet name="U26SG3_check_total" r:id="rId32" sheetId="30"/>
-    <sheet name="objectsPositionU26SG3" r:id="rId33" sheetId="31"/>
-    <sheet name="U27SG3_check_total" r:id="rId34" sheetId="32"/>
-    <sheet name="objectsPositionU27SG3" r:id="rId35" sheetId="33"/>
+    <sheet name="U24SG3_check_total" sheetId="26" state="hidden" r:id="rId24"/>
+    <sheet name="objectsPositionU24SG3" sheetId="27" state="hidden" r:id="rId25"/>
+    <sheet name="U25SG3_check_total" sheetId="28" state="hidden" r:id="rId26"/>
+    <sheet name="objectsPositionU25SG3" sheetId="29" state="hidden" r:id="rId27"/>
+    <sheet name="U26SG3_check_total" sheetId="30" state="hidden" r:id="rId28"/>
+    <sheet name="objectsPositionU26SG3" sheetId="31" state="hidden" r:id="rId29"/>
+    <sheet name="U27SG3_check_total" sheetId="32" r:id="rId30"/>
+    <sheet name="objectsPositionU27SG3" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="500">
   <si>
     <t>Utente</t>
   </si>
@@ -1044,54 +1044,6 @@
     <t>U24SG</t>
   </si>
   <si>
-    <t>2021_11_10_12_02_13_948</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_13_957</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_13_976</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_233</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_288</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_318</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_401</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_431</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_02_56_509</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_00_427</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_00_634</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_10_543</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_10_888</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_20_111</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_26_199</t>
-  </si>
-  <si>
-    <t>2021_11_10_12_03_32_565</t>
-  </si>
-  <si>
     <t>2021_11_10_14_21_24_099</t>
   </si>
   <si>
@@ -1104,54 +1056,6 @@
     <t>U25SG</t>
   </si>
   <si>
-    <t>2021_11_10_14_20_05_826</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_05_835</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_05_858</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_49_001</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_49_306</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_54_140</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_54_141</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_54_164</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_54_572</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_54_783</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_59_531</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_20_59_764</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_08_096</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_08_494</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_13_239</t>
-  </si>
-  <si>
-    <t>2021_11_10_14_21_23_726</t>
-  </si>
-  <si>
     <t>2021_11_10_15_17_08_606</t>
   </si>
   <si>
@@ -1164,48 +1068,6 @@
     <t>U26SG</t>
   </si>
   <si>
-    <t>2021_11_10_15_16_02_172</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_02_181</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_02_207</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_43_235</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_43_522</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_43_552</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_43_691</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_47_418</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_47_761</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_50_954</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_16_51_086</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_05_664</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_08_474</t>
-  </si>
-  <si>
-    <t>2021_11_10_15_17_11_486</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -1332,175 +1194,373 @@
     <t>67</t>
   </si>
   <si>
-    <t>2021_11_10_16_19_03_252</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_03_261</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_03_286</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_50_580</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_50_598</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_345</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_351</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_381</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_398</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_532</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_539</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_640</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_658</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_688</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_694</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_748</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_51_754</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_051</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_069</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_129</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_147</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_155</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_209</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_268</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_274</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_478</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_484</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_19_52_501</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_36_912</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_36_989</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_37_013</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_38_014</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_41_790</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_42_237</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_42_376</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_42_701</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_42_943</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_44_200</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_44_679</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_46_267</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_46_368</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_48_837</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_49_147</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_49_177</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_49_201</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_49_945</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_50_101</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_50_525</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_54_620</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_55_057</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_55_083</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_20_55_223</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_00_224</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_00_680</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_05_144</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_05_524</t>
-  </si>
-  <si>
-    <t>2021_11_10_16_21_16_070</t>
+    <t>12:02:13:948</t>
+  </si>
+  <si>
+    <t>12:02:13:957</t>
+  </si>
+  <si>
+    <t>12:02:13:976</t>
+  </si>
+  <si>
+    <t>12:02:56:233</t>
+  </si>
+  <si>
+    <t>12:02:56:288</t>
+  </si>
+  <si>
+    <t>12:02:56:318</t>
+  </si>
+  <si>
+    <t>12:02:56:401</t>
+  </si>
+  <si>
+    <t>12:02:56:431</t>
+  </si>
+  <si>
+    <t>12:02:56:509</t>
+  </si>
+  <si>
+    <t>12:03:00:427</t>
+  </si>
+  <si>
+    <t>12:03:00:634</t>
+  </si>
+  <si>
+    <t>12:03:10:543</t>
+  </si>
+  <si>
+    <t>12:03:10:888</t>
+  </si>
+  <si>
+    <t>12:03:20:111</t>
+  </si>
+  <si>
+    <t>12:03:21:188</t>
+  </si>
+  <si>
+    <t>12:03:26:199</t>
+  </si>
+  <si>
+    <t>12:03:27:253</t>
+  </si>
+  <si>
+    <t>12:03:32:565</t>
+  </si>
+  <si>
+    <t>12:03:33:400</t>
+  </si>
+  <si>
+    <t>12:02:13</t>
+  </si>
+  <si>
+    <t>12:03:33</t>
+  </si>
+  <si>
+    <t>14:20:05:826</t>
+  </si>
+  <si>
+    <t>14:20:05:835</t>
+  </si>
+  <si>
+    <t>14:20:05:858</t>
+  </si>
+  <si>
+    <t>14:20:49:001</t>
+  </si>
+  <si>
+    <t>14:20:49:306</t>
+  </si>
+  <si>
+    <t>14:20:54:140</t>
+  </si>
+  <si>
+    <t>14:20:54:141</t>
+  </si>
+  <si>
+    <t>14:20:54:164</t>
+  </si>
+  <si>
+    <t>14:20:54:572</t>
+  </si>
+  <si>
+    <t>14:20:54:783</t>
+  </si>
+  <si>
+    <t>14:20:59:531</t>
+  </si>
+  <si>
+    <t>14:20:59:764</t>
+  </si>
+  <si>
+    <t>14:21:08:096</t>
+  </si>
+  <si>
+    <t>14:21:08:494</t>
+  </si>
+  <si>
+    <t>14:21:08:495</t>
+  </si>
+  <si>
+    <t>14:21:13:239</t>
+  </si>
+  <si>
+    <t>14:21:16:972</t>
+  </si>
+  <si>
+    <t>14:21:23:726</t>
+  </si>
+  <si>
+    <t>14:21:24:099</t>
+  </si>
+  <si>
+    <t>14:20:05</t>
+  </si>
+  <si>
+    <t>14:21:24</t>
+  </si>
+  <si>
+    <t>15:16:02:172</t>
+  </si>
+  <si>
+    <t>15:16:02:181</t>
+  </si>
+  <si>
+    <t>15:16:02:207</t>
+  </si>
+  <si>
+    <t>15:16:43:235</t>
+  </si>
+  <si>
+    <t>15:16:43:522</t>
+  </si>
+  <si>
+    <t>15:16:43:552</t>
+  </si>
+  <si>
+    <t>15:16:43:691</t>
+  </si>
+  <si>
+    <t>15:16:47:418</t>
+  </si>
+  <si>
+    <t>15:16:47:761</t>
+  </si>
+  <si>
+    <t>15:16:50:954</t>
+  </si>
+  <si>
+    <t>15:16:51:086</t>
+  </si>
+  <si>
+    <t>15:17:05:664</t>
+  </si>
+  <si>
+    <t>15:17:05:780</t>
+  </si>
+  <si>
+    <t>15:17:08:474</t>
+  </si>
+  <si>
+    <t>15:17:08:606</t>
+  </si>
+  <si>
+    <t>15:17:11:486</t>
+  </si>
+  <si>
+    <t>15:17:11:567</t>
+  </si>
+  <si>
+    <t>15:16:02</t>
+  </si>
+  <si>
+    <t>15:17:11</t>
+  </si>
+  <si>
+    <t>16:19:03:252</t>
+  </si>
+  <si>
+    <t>16:19:03:261</t>
+  </si>
+  <si>
+    <t>16:19:03:286</t>
+  </si>
+  <si>
+    <t>16:19:50:580</t>
+  </si>
+  <si>
+    <t>16:19:50:598</t>
+  </si>
+  <si>
+    <t>16:19:51:345</t>
+  </si>
+  <si>
+    <t>16:19:51:351</t>
+  </si>
+  <si>
+    <t>16:19:51:381</t>
+  </si>
+  <si>
+    <t>16:19:51:398</t>
+  </si>
+  <si>
+    <t>16:19:51:532</t>
+  </si>
+  <si>
+    <t>16:19:51:539</t>
+  </si>
+  <si>
+    <t>16:19:51:640</t>
+  </si>
+  <si>
+    <t>16:19:51:658</t>
+  </si>
+  <si>
+    <t>16:19:51:688</t>
+  </si>
+  <si>
+    <t>16:19:51:694</t>
+  </si>
+  <si>
+    <t>16:19:51:748</t>
+  </si>
+  <si>
+    <t>16:19:51:754</t>
+  </si>
+  <si>
+    <t>16:19:52:051</t>
+  </si>
+  <si>
+    <t>16:19:52:069</t>
+  </si>
+  <si>
+    <t>16:19:52:129</t>
+  </si>
+  <si>
+    <t>16:19:52:147</t>
+  </si>
+  <si>
+    <t>16:19:52:155</t>
+  </si>
+  <si>
+    <t>16:19:52:209</t>
+  </si>
+  <si>
+    <t>16:19:52:268</t>
+  </si>
+  <si>
+    <t>16:19:52:274</t>
+  </si>
+  <si>
+    <t>16:19:52:478</t>
+  </si>
+  <si>
+    <t>16:19:52:484</t>
+  </si>
+  <si>
+    <t>16:19:52:501</t>
+  </si>
+  <si>
+    <t>16:20:36:912</t>
+  </si>
+  <si>
+    <t>16:20:36:989</t>
+  </si>
+  <si>
+    <t>16:20:37:013</t>
+  </si>
+  <si>
+    <t>16:20:38:014</t>
+  </si>
+  <si>
+    <t>16:20:41:790</t>
+  </si>
+  <si>
+    <t>16:20:42:237</t>
+  </si>
+  <si>
+    <t>16:20:42:376</t>
+  </si>
+  <si>
+    <t>16:20:42:701</t>
+  </si>
+  <si>
+    <t>16:20:42:943</t>
+  </si>
+  <si>
+    <t>16:20:44:200</t>
+  </si>
+  <si>
+    <t>16:20:44:679</t>
+  </si>
+  <si>
+    <t>16:20:46:267</t>
+  </si>
+  <si>
+    <t>16:20:46:368</t>
+  </si>
+  <si>
+    <t>16:20:48:837</t>
+  </si>
+  <si>
+    <t>16:20:49:147</t>
+  </si>
+  <si>
+    <t>16:20:49:177</t>
+  </si>
+  <si>
+    <t>16:20:49:201</t>
+  </si>
+  <si>
+    <t>16:20:49:945</t>
+  </si>
+  <si>
+    <t>16:20:50:101</t>
+  </si>
+  <si>
+    <t>16:20:50:525</t>
+  </si>
+  <si>
+    <t>16:20:54:620</t>
+  </si>
+  <si>
+    <t>16:20:55:057</t>
+  </si>
+  <si>
+    <t>16:20:55:083</t>
+  </si>
+  <si>
+    <t>16:20:55:223</t>
+  </si>
+  <si>
+    <t>16:21:00:224</t>
+  </si>
+  <si>
+    <t>16:21:00:680</t>
+  </si>
+  <si>
+    <t>16:21:05:144</t>
+  </si>
+  <si>
+    <t>16:21:05:524</t>
+  </si>
+  <si>
+    <t>16:21:13:171</t>
+  </si>
+  <si>
+    <t>16:21:16:070</t>
+  </si>
+  <si>
+    <t>16:21:16:401</t>
+  </si>
+  <si>
+    <t>16:21:20:193</t>
+  </si>
+  <si>
+    <t>16:19:03</t>
+  </si>
+  <si>
+    <t>16:21:20</t>
   </si>
 </sst>
 </file>
@@ -1861,13 +1921,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF0D71-7653-4593-859C-28B6B8BC6ACD}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="A25:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -2525,51 +2585,115 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.2592592592588563E-4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.1435185185184675E-4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9861111111112493E-4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.585648148148211E-3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2618,7 +2742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3044,7 +3168,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3674,7 +3798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4100,7 +4224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4594,7 +4718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5192,7 +5316,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.1328125" collapsed="true"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5261,7 +5385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -5653,7 +5777,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -6003,16 +6127,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -6023,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6037,7 +6163,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -6051,7 +6177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -6066,395 +6192,1009 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>12:02:13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C26,LEN(C2)-4)</f>
+        <v>12:03:33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>14:20:05</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C26,LEN(C2)-4)</f>
+        <v>14:21:24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
         <v>330</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>330</v>
       </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>415</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
-        <v>326</v>
+      <c r="E26" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -6465,425 +7205,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>15:16:02</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C26,LEN(C2)-4)</f>
+        <v>15:17:11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>435</v>
       </c>
       <c r="D26" t="s">
-        <v>346</v>
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6897,8 +7721,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="2" max="2" width="14.53125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -7346,15 +8170,17 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -7365,1483 +8191,1257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="E2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(C2,LEN(C2)-4)</f>
+        <v>16:19:03</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(C70,LEN(C2)-4)</f>
+        <v>16:21:20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="D16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="D17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>437</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>441</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>444</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>447</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" t="s">
         <v>78</v>
       </c>
-      <c r="D31" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>453</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
+        <v>469</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
+        <v>470</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>455</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="D36" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s">
-        <v>457</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" t="s">
         <v>88</v>
       </c>
-      <c r="D38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
+        <v>474</v>
+      </c>
+      <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
+        <v>475</v>
+      </c>
+      <c r="D41" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
+        <v>475</v>
+      </c>
+      <c r="D42" t="s">
         <v>90</v>
       </c>
-      <c r="D42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s">
-        <v>461</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
+        <v>476</v>
+      </c>
+      <c r="D43" t="s">
         <v>80</v>
       </c>
-      <c r="D43" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s">
-        <v>463</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
+        <v>478</v>
+      </c>
+      <c r="D45" t="s">
         <v>80</v>
       </c>
-      <c r="D45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
-        <v>463</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
+        <v>478</v>
+      </c>
+      <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s">
-        <v>464</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
+        <v>479</v>
+      </c>
+      <c r="D47" t="s">
         <v>78</v>
       </c>
-      <c r="D47" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
-        <v>465</v>
+        <v>308</v>
       </c>
       <c r="C49" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" t="s">
         <v>78</v>
       </c>
-      <c r="D49" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
+        <v>481</v>
+      </c>
+      <c r="D50" t="s">
         <v>89</v>
       </c>
-      <c r="D50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
-        <v>467</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D51" t="s">
         <v>78</v>
       </c>
-      <c r="D51" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
-        <v>468</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D52" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53" t="s">
         <v>78</v>
       </c>
-      <c r="D53" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="C54" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" t="s">
         <v>89</v>
       </c>
-      <c r="D54" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
-        <v>471</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
+        <v>486</v>
+      </c>
+      <c r="D55" t="s">
         <v>78</v>
       </c>
-      <c r="D55" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s">
-        <v>471</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
+        <v>486</v>
+      </c>
+      <c r="D56" t="s">
         <v>89</v>
       </c>
-      <c r="D56" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>308</v>
       </c>
       <c r="C57" t="s">
+        <v>487</v>
+      </c>
+      <c r="D57" t="s">
         <v>78</v>
       </c>
-      <c r="D57" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s">
-        <v>473</v>
+        <v>308</v>
       </c>
       <c r="C58" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" t="s">
         <v>89</v>
       </c>
-      <c r="D58" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="E58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>308</v>
       </c>
       <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" t="s">
         <v>78</v>
       </c>
-      <c r="D59" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" t="s">
         <v>79</v>
       </c>
-      <c r="D60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="D61" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="E61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" t="s">
         <v>79</v>
       </c>
-      <c r="D62" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="E62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" t="s">
         <v>80</v>
       </c>
-      <c r="D63" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="E64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s">
-        <v>478</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
+        <v>493</v>
+      </c>
+      <c r="D65" t="s">
         <v>80</v>
       </c>
-      <c r="D65" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" t="s">
         <v>89</v>
       </c>
-      <c r="D66" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s">
-        <v>479</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D67" t="s">
         <v>88</v>
       </c>
-      <c r="D67" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D68" t="s">
         <v>79</v>
       </c>
-      <c r="D68" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
+        <v>496</v>
+      </c>
+      <c r="D69" t="s">
         <v>88</v>
       </c>
-      <c r="D69" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
+        <v>497</v>
+      </c>
+      <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="D70" t="s">
-        <v>387</v>
+      <c r="E70" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8853,7 +9453,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.1328125" collapsed="true"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8924,7 +9524,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.53125" collapsed="true"/>
+    <col min="2" max="2" width="23.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -9282,7 +9882,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -9742,7 +10342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.53125" collapsed="true"/>
+    <col min="3" max="3" width="16.53125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
